--- a/graph_generation/results_pathCompare/gpt3.5/level_6/k_0.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_6/k_0.xlsx
@@ -31,91 +31,115 @@
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 4 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0
- F 0 1 0 0 3 0 2 0 0 4 0 0 0 0 0 0
- G 0 0 1 0 0 2 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 3 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 3 0 0 1 0 0 0
- J 0 0 0 0 0 4 0 0 3 0 3 0 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 5 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 4 0 3 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 5 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 3 0 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 5 0 0 1 0
+ L 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 3 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 4 0 2 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 2 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 2 0 0 2 0
- L 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 1 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 3 0 0 1 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 4 0 5 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0
+ A 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 4 0 0 5 0 0 0 0 0 0
+ G 0 0 5 0 0 4 0 5 0 0 4 0 0 0 0 0
+ H 0 0 0 5 0 0 5 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 0 0 0 3 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 1 0 0 5 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 3 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ F 0 3 0 0 1 0 4 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 1 0 0 2 0 0 0 0 0
+ H 0 0 0 4 0 0 1 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 5 0 0
+ K 0 0 0 0 0 0 2 0 0 1 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 5 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 4 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
- F 0 2 0 0 2 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 4 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 5 0 0 2 0 0
- K 0 0 0 0 0 0 2 0 0 5 0 3 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 4 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 3 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- E 0 2 0 3 0 1 0 0 3 0 0 0 0 0 0
- F 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- I 0 0 0 0 3 0 0 0 0 4 0 0 4 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0
- M 0 0 0 0 0 0 0 0 4 0 0 1 0 4 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+ F 0 0 0 0 2 0 2 0 0 4 0 0 0 0 0 0
+ G 0 0 2 0 0 2 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 2 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 2 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -123,319 +147,269 @@
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 4 0 0 3 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 5 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0
- F 0 3 0 0 3 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 1 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 5 0 0 5 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 5 0 0 4 0 0
- K 0 0 0 0 0 0 1 0 0 5 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 3 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ F 0 3 0 0 3 0 1 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 5 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0
+ F 0 5 0 0 1 0 1 0 0 3 0 0 0 0 0
+ G 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 5 0 0 0 1 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 3
+ L 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0
+ M 0 0 0 0 0 0 0 0 0 4 0 5 0 4 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0
- F 0 3 0 0 1 0 0 0 0 5 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 3 0 0 3 0 0 0
- J 0 0 0 0 0 5 0 0 3 0 5 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 3 0 0 1 0
- L 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 2 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 4 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 4 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 5 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 1 0 5 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 5 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 1 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 5 0 0 4 0 0 0 0 0 0 0
+ F 0 3 0 0 5 0 5 0 0 5 0 0 0 0 0 0
+ G 0 0 5 0 0 5 0 3 0 0 1 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 5 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 3 0 0 3 0 0 0 0 0 0
- G 0 0 3 0 0 3 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 4 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 5 0 0 1 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 1 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 5 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 4 0 0 0 0 0 0
+ E 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ F 0 1 0 0 2 0 1 0 4 0 0 0 0 0
+ G 0 0 5 0 0 1 0 5 0 1 0 0 0 0
+ H 0 0 0 4 0 0 5 0 0 0 1 0 0 0
+ I 0 0 0 0 0 4 0 0 0 0 0 2 0 0
+ J 0 0 0 0 0 0 1 0 0 0 0 0 2 0
+ K 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 2 0 0 0 3 0
+ M 0 0 0 0 0 0 0 0 0 2 0 3 0 2
+ N 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+Let's list down all the possible paths from node A to node N, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 5 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
- F 0 4 0 0 2 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 1 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 4 0 0 3 0 0 0
- J 0 0 0 0 0 3 0 0 4 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 2 0 0 5 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 5 0 0 3 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 5 0 0 0 0 0 0
- F 0 0 2 0 0 0 5 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0
- I 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0
- J 0 0 0 0 0 3 0 0 3 0 4 0 0 2 0
- K 0 0 0 0 0 0 4 0 0 4 0 0 0 0 3
- L 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 4 0 4
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
+    <t>A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; K -&gt; O</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>1. A-B-F-J-N-P (Cost = 2 + 1 + 4 + 5 = 12)
-2. A-B-F-J-O-P (Cost = 2 + 1 + 4 + 4 = 11)
-3. A-B-F-J-N-O-P (Cost = 2 + 1 + 4 + 5 + 4 = 16)
-4. A-E-F-J-N-P (Cost = 3 + 1 + 4 + 5 = 13)
-5. A-E-F-J-O-P (Cost = 3 + 1 + 4 + 4 = 12)
-6. A-E-F-J-N-O-P (Cost = 3 + 1 + 4 + 5 + 4 = 17)
-7. A-E-I-N-P (Cost = 3 + 5 = 8)
-8. A-E-I-J-N-P (Cost = 3 + 5 + 4 = 12)
-9. A-E-I-J-O-P (Cost = 3 + 5 + 4 + 4 = 16)
-10. A-E-I-N-O-P (Cost = 3 + 5 + 4 + 5 + 4 = 21)
-The least cost path from node A to node P is A-E-I-N-P with a cost of 8.</t>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; M -&gt; N</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A - B - C - D - H - P (cost = 4 + 5 + 1 + 4 + 4 = 18)
+2. A - E - F - G - H - P (cost = 3 + 4 + 3 + 5 + 4 = 19)
+3. A - B - F - G - H - P (cost = 4 + 3 + 3 + 5 + 4 = 19)
+4. A - B - F - J - N - O - P (cost = 4 + 3 + 1 + 3 + 2 + 1 = 14)
+5. A - B - F - J - N - P (cost = 4 + 3 + 1 + 3 + 2 = 13)
+6. A - E - F - J - N - O - P (cost = 3 + 4 + 1 + 3 + 2 + 1 = 14)
+7. A - E - F - J - N - P (cost = 3 + 4 + 1 + 3 + 2 = 13)
+The least cost path from node A to node P is A - B - F - J - N - P with a cost of 13.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can perform a depth-first search (DFS) on the graph. We start from node A and recursively explore all its neighbors, keeping track of the current path and its cost. We continue this process until we reach node P.
+Here are all the possible paths from node A to node P:
+1. A - B - C - D - H - P (cost = 5 + 4 + 1 + 2 = 12)
+2. A - B - C - G - K - O - P (cost = 5 + 4 + 3 + 2 + 2 + 1 = 17)
+3. A - B - C - G - L - P (cost = 5 + 4 + 3 + 2 = 14)
+4. A - E - F - C - D - H - P (cost = 3 + 5 + 1 + 2 + 2 = 13)
+5. A - E - F - C - G - K - O - P (cost = 3 + 5 + 1 + 3 + 2 + 2 + 1 = 17)
+6. A - E - F - C - G - L - P (cost = 3 + 5 + 1 + 3 + 2 = 14)
+7. A - E - I - J - K - O - P (cost = 3 + 2 + 4 + 5 + 2 + 1 = 17)
+8. A - E - I - M - N - O - P (cost = 3 + 2 + 4 + 1 + 2 + 2 = 14)
+9. A - E - I - M - N - P (cost = 3 + 2 + 4 + 1 + 2 = 12)
+10. A - E - I - M - P (cost = 3 + 2 + 4 + 1 = 10)
+The least cost path from node A to node P is A - E - I - M - P with a cost of 10.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are as follows:
+1. A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P
+2. A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; I -&gt; N -&gt; O -&gt; P
+3. A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; K -&gt; O -&gt; P
+4. A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; K -&gt; O -&gt; N -&gt; P
+5. A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; K -&gt; O -&gt; M -&gt; N -&gt; P
+6. A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; K -&gt; O -&gt; M -&gt; L -&gt; P
+Comparing the cost of each path, the least cost path from node A to node P is option 4:
+A -&gt; B -&gt; C -&gt; D -&gt; J -&gt; K -&gt; O -&gt; N -&gt; P</t>
   </si>
   <si>
     <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P        (cost = 1 + 5 + 3 + 3 + 1 = 13)
-2. A -&gt; B -&gt; C -&gt; D -&gt; M -&gt; O -&gt; P   (cost = 1 + 5 + 3 + 4 + 2 + 3 = 18)
-3. A -&gt; E -&gt; F -&gt; K -&gt; O -&gt; P        (cost = 5 + 1 + 3 + 2 + 2 = 13)
-4. A -&gt; E -&gt; F -&gt; M -&gt; O -&gt; P        (cost = 5 + 1 + 4 + 4 + 2 = 16)
-5. A -&gt; F -&gt; K -&gt; O -&gt; P             (cost = 2 + 3 + 2 + 3 = 10)
-6. A -&gt; F -&gt; M -&gt; O -&gt; P             (cost = 2 + 4 + 4 + 3 = 13)
-7. A -&gt; F -&gt; K -&gt; N -&gt; O -&gt; P        (cost = 2 + 3 + 4 + 2 + 3 = 14)
-8. A -&gt; F -&gt; M -&gt; N -&gt; O -&gt; P        (cost = 2 + 4 + 4 + 4 + 3 = 17)
-9. A -&gt; F -&gt; M -&gt; N -&gt; L -&gt; P        (cost = 2 + 4 + 4 + 4 + 4 = 18)
-10. A -&gt; F -&gt; K -&gt; N -&gt; L -&gt; P       (cost = 2 + 3 + 4 + 2 + 4 = 15)
-The least cost path from node A to node P is path 5:
-   A -&gt; F -&gt; K -&gt; O -&gt; P
-So, the sequence of nodes in the least cost path is A, F, K, O, P.</t>
+1. A - B - F - J - N - O - P (cost = 2+3+1+1+5+3 = 15)
+2. A - B - F - J - N - P (cost = 2+3+1+1+3 = 10)
+3. A - B - F - J - N - P (cost = 2+3+1+1+5 = 12)
+4. A - E - I - J - N - O - P (cost = 5+1+1+1+5+3 = 16)
+5. A - E - I - J - N - P (cost = 5+1+1+1+3 = 11)
+6. A - E - I - K - M - N - P (cost = 5+1+1+2+5+3 = 17)
+7. A - E - I - K - M - P (cost = 5+1+1+2+5 = 14)
+8. A - E - I - K - L - P (cost = 5+1+1+2+1 = 10)
+9. A - E - I - M - N - P (cost = 5+1+2+5+3 = 16)
+10. A - E - I - M - P (cost = 5+1+2+5 = 13)
+The path with the least cost from node A to node P is A - B - F - J - N - P with a cost of 10.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can use a graph traversal algorithm such as Dijkstra's algorithm. However, since the graph is relatively small, we can also list down all the possible paths and compare their costs.
+The possible paths from node A to node P are:
+1) A - B - C - D - G - P (cost = 4 + 2 + 4 + 2 + 1 = 13)
+2) A - B - C - D - H - P (cost = 4 + 2 + 4 + 2 = 12)
+3) A - B - C - G - P (cost = 4 + 2 + 2 + 1 = 9)
+4) A - B - C - D - G - H - P (cost = 4 + 2 + 4 + 2 + 2 = 14)
+5) A - B - C - G - H - P (cost = 4 + 2 + 2 + 2 = 10)
+6) A - E - F - C - D - G - P (cost = 1 + 2 + 2 + 4 + 2 + 1 = 12)
+7) A - E - F - C - G - P (cost = 1 + 2 + 2 + 2 + 1 = 8)
+8) A - E - F - G - P (cost = 1 + 2 + 2 + 1 = 6)
+9) A - E - I - N - O - P (cost = 1 + 3 + 1 + 5 + 3 = 13)
+10) A - E - I - O - P (cost = 1 + 3 + 3 + 3 = 10)
+11) A - E - J - N - O - P (cost = 1 + 4 + 1 + 5 + 3 = 14)
+12) A - E - J - O - P (cost = 1 + 4 + 3 + 3 = 11)
+The least cost path from node A to node P is path number 8: A - E - F - G - P.</t>
   </si>
   <si>
     <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; P (total cost = 5+2+3+2 = 12)
-2. A -&gt; B -&gt; F -&gt; G -&gt; N -&gt; P (total cost = 5+2+4+4+2 = 17)
-3. A -&gt; B -&gt; F -&gt; G -&gt; M -&gt; N -&gt; P (total cost = 5+2+4+4+4+4 = 23)
-4. A -&gt; B -&gt; F -&gt; G -&gt; M -&gt; L -&gt; P (total cost = 5+2+4+4+4+3 = 22)
-5. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; P (total cost = 1+2+3+2 = 8)
-6. A -&gt; E -&gt; F -&gt; G -&gt; N -&gt; P (total cost = 1+2+4+4+2 = 13)
-7. A -&gt; E -&gt; F -&gt; G -&gt; M -&gt; N -&gt; P (total cost = 1+2+4+4+4+4 = 19)
-8. A -&gt; E -&gt; F -&gt; G -&gt; M -&gt; L -&gt; P (total cost = 1+2+4+4+4+3 = 18)
-9. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (total cost = 4+4+1 = 9)
-10. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (total cost = 4+4+3 = 11)
-11. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; P (total cost = 4+4+3+4+4+4 = 23)
-12. A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; P (total cost = 3+4+5+2 = 14)
-13. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P (total cost = 3+4+5+4+4 = 20)
-14. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; M -&gt; L -&gt; P (total cost = 3+4+5+4+4+3 = 23)
-15. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; M -&gt; L -&gt; H -&gt; P (total cost = 3+4+5+4+4+3+1 = 24)
-16. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; M -&gt; L -&gt; H -&gt; D -&gt; C -&gt; B -&gt; F -&gt; G -&gt; K -&gt; P (total cost = 3+4+5+4+4+3+1+4+4+2+3+2 = 39)
-The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; P with a total cost of 8.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node O:
-1) A - B - C - F - L - M - N - O (Total cost: 2+3+2+1+1+4+2 = 15)
-2) A - D - E - F - L - M - N - O (Total cost: 2+3+1+1+1+4+2 = 14)
-3) A - D - E - F - G - K - O (Total cost: 2+3+1+1+1+1= 9)
-4) A - D - E - I - J - K - O (Total cost: 2+3+3+4+1= 13)
-5) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-6) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-7) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-8) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-9) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-10) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-11) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-12) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-13) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-14) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18)
-15) A - D - E - I - M - N - O (Total cost: 2+3+3+4+4+2= 18) 
-The least cost path from node A to node O is A - D - E - F - G - K - O with a total cost of 9.</t>
-  </si>
-  <si>
-    <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost = 3 + 2 + 4 + 1 + 1 = 11)
-2. A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; P (cost = 3 + 2 + 3 + 1 + 4 = 13)
-3. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; P (cost = 3 + 3 + 1 + 1 + 4 = 12)
-4. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; P (cost = 5 + 3 + 1 + 1 + 4 = 14)
-5. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P (cost = 5 + 4 + 5 + 4 + 2 = 20)
-6. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost = 5 + 4 + 5 + 4 + 3 + 2 = 23)
-7. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost = 5 + 4 + 5 + 4 + 3 + 2 = 23)
-8. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P (cost = 5 + 4 + 5 + 4 + 2 = 20)
-9. A -&gt; F -&gt; G -&gt; K -&gt; P (cost = 3 + 1 + 1 + 4 = 9)
-10. A -&gt; F -&gt; G -&gt; K -&gt; P (cost = 3 + 1 + 1 + 4 = 9)
-The least cost path from node A to node P is A -&gt; F -&gt; G -&gt; K -&gt; P with a cost of 9.</t>
-  </si>
-  <si>
-    <t>The possible paths from node A to node P are:
-1. A - B - F - J - M - N - O - P
-   Cost = 3 + 3 + 5 + 2 + 2 + 4 + 5 = 24
-2. A - B - F - J - K - L - P
-   Cost = 3 + 3 + 5 + 3 + 4 = 18
-3. A - E - F - J - M - N - O - P
-   Cost = 5 + 1 + 5 + 2 + 2 + 4 + 5 = 24
-4. A - E - H - M - N - O - P
-   Cost = 5 + 3 + 3 + 2 + 2 + 4 + 5 = 24
-5. A - E - H - L - P
-   Cost = 5 + 3 + 4 + 5 = 17
-The least cost path from node A to node P is A - E - H - L - P with a cost of 17.</t>
-  </si>
-  <si>
-    <t>First, we need to list down all the possible paths from node A to node P:
-1. A - P
-2. A - E - P
-3. A - E - F - P
-4. A - E - F - G - P
-5. A - E - F - G - H - P
-6. A - E - F - G - H - D - P
-7. A - E - F - G - H - D - C - P
-8. A - E - F - G - H - D - C - B - P
-9. A - E - F - G - H - D - C - B - O - P
-10. A - E - F - G - H - D - C - B - O - N - P
-11. A - E - F - G - H - D - C - B - O - N - M - P
-12. A - E - F - G - H - D - C - B - O - N - M - L - K - P
-13. A - E - F - G - H - D - C - B - O - N - M - L - K - J - P
-14. A - E - F - G - H - D - C - B - O - N - M - L - K - J - I - P
-Now we need to calculate the cost of each path:
-1. A - P - Cost: 0
-2. A - E - P - Cost: 1 + 0 = 1
-3. A - E - F - P - Cost: 1 + 3 + 0 = 4
-4. A - E - F - G - P - Cost: 1 + 3 + 1 + 0 = 5
-5. A - E - F - G - H - P - Cost: 1 + 3 + 1 + 5 + 0 = 10
-6. A - E - F - G - H - D - P - Cost: 1 + 3 + 1 + 5 + 3 + 0 = 13
-7. A - E - F - G - H - D - C - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 = 18
-8. A - E - F - G - H - D - C - B - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 + 0 = 18
-9. A - E - F - G - H - D - C - B - O - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 + 0 + 3 = 21
-10. A - E - F - G - H - D - C - B - O - N - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 + 0 + 3 + 3 = 24
-11. A - E - F - G - H - D - C - B - O - N - M - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 + 0 + 3 + 3 + 1 = 25
-12. A - E - F - G - H - D - C - B - O - N - M - L - K - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 + 0 + 3 + 3 + 1 + 4 + 4 = 33
-13. A - E - F - G - H - D - C - B - O - N - M - L - K - J - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 + 0 + 3 + 3 + 1 + 4 + 4 + 3 = 36
-14. A - E - F - G - H - D - C - B - O - N - M - L - K - J - I - P - Cost: 1 + 3 + 1 + 5 + 3 + 5 + 0 + 0 + 3 + 3 + 1 + 4 + 4 + 3 + 2 = 38
-The least cost path from node A to node P is:
-A - E - F - G - H - D - C - B - O - N - M - L - K - J - I - P</t>
-  </si>
-  <si>
-    <t>All possible paths from node A to node P are:
-1. A - B - C - D - H - L - P (total cost = 16)
-2. A - B - C - D - H - P (total cost = 17)
-3. A - B - C - D - P (total cost = 18)
-4. A - E - I - M - N - O - P (total cost = 19)
-5. A - E - I - M - P (total cost = 21)
-6. A - E - I - P (total cost = 24)
-So, the least cost path from node A to node P is: A - B - C - D - H - L - P.</t>
-  </si>
-  <si>
-    <t>One possible approach to find the least cost path from node A to node P is to use Dijkstra's algorithm. We start by setting the initial cost of all nodes except A to infinity, and the cost of node A to 0. We also create an array to keep track of the previous node for each node.
-Next, we iterate through all the nodes and update their costs based on the minimum cost path found so far. For each node, we check its cost and if it is less than the current cost, we update the cost and previous node. We continue this process until we have visited all the nodes or until we reach node P.
-After finding the least cost path, we can use the array of previous nodes to backtrack from node P to node A and get the sequence of nodes in the path.
-In this case, the least cost path from node A to node P is:
-A -&gt; B -&gt; F -&gt; H -&gt; P
-So the sequence of nodes in the least cost path is: A, B, F, H, P.</t>
+1. A-P cost: 0+5+3+2+3 = 13
+2. A-E-K-P cost: 5+4+3+3 = 15
+3. A-B-F-J-N-P cost: 3+3+1+5+3 = 15
+4. A-B-F-J-O-P cost: 3+3+1+5+3 = 15
+5. A-B-F-L-P cost: 3+3+5+2+3 = 16
+6. A-B-F-M-P cost: 3+3+5+5+3 = 19
+The least cost path from node A to node P is A-P with a cost of 13.</t>
   </si>
   <si>
     <t>The possible paths from node A to node O are:
-A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; O
-A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; N -&gt; O
-A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; O
-A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; K -&gt; O
-A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; O
-A -&gt; B -&gt; C -&gt; M -&gt; N -&gt; O
-The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; O</t>
+1. A - B - F - G - H - L - O (cost = 19)
+2. A - B - F - G - H - D - M - O (cost = 20)
+3. A - B - F - G - H - D - M - N - O (cost = 24)
+4. A - B - F - G - H - D - I - N - O (cost = 29)
+5. A - B - F - G - H - J - N - O (cost = 30)
+6. A - B - F - G - H - J - M - N - O (cost = 34)
+7. A - B - F - G - H - J - M - D - O (cost = 35)
+8. A - B - F - G - H - J - M - D - I - O (cost = 40)
+9. A - E - J - N - O (cost = 9)
+10. A - E - J - H - L - O (cost = 11)
+11. A - E - J - H - D - M - O (cost = 12)
+12. A - E - J - H - D - I - N - O (cost = 17)
+13. A - E - J - H - D - M - N - O (cost = 21)
+14. A - E - J - H - D - M - D - I - O (cost = 26)
+15. A - E - J - H - D - M - D - N - O (cost = 30)
+The least cost path from node A to node O is A - B - F - G - H - L - O with a cost of 19.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost: 1 + 5 + 3 + 2 + 4 = 15)
+2. A -&gt; B -&gt; C -&gt; D -&gt; P (cost: 1 + 5 + 3 = 9)
+3. A -&gt; E -&gt; J -&gt; N -&gt; P (cost: 1 + 3 + 4 + 1 = 9)
+The least cost path from node A to node P is path 3: A -&gt; E -&gt; J -&gt; N -&gt; P, with a total cost of 9.</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost = 14)
+2. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O -&gt; P (cost = 16)
+3. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; E -&gt; F -&gt; P (cost = 17)
+4. A -&gt; E -&gt; F -&gt; P (cost = 14)
+5. A -&gt; E -&gt; M -&gt; N -&gt; G -&gt; C -&gt; D -&gt; H -&gt; P (cost = 19)
+6. A -&gt; E -&gt; M -&gt; N -&gt; O -&gt; P (cost = 17)
+7. A -&gt; E -&gt; M -&gt; N -&gt; G -&gt; C -&gt; B -&gt; P (cost = 20)
+8. A -&gt; E -&gt; M -&gt; N -&gt; G -&gt; C -&gt; D -&gt; P (cost = 21)
+9. A -&gt; E -&gt; M -&gt; N -&gt; G -&gt; C -&gt; D -&gt; H -&gt; P (cost = 24)
+The least cost path from A to P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P, with a cost of 14.</t>
+  </si>
+  <si>
+    <t>Here are all the possible paths from node A to node N:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; J -&gt; N
+   Total cost: 5 + 2 + 3 + 4 + 1 + 2 = 17
+2. A -&gt; E -&gt; F -&gt; H -&gt; J -&gt; N
+   Total cost: 1 + 2 + 1 + 1 + 2 = 7
+3. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; N
+   Total cost: 1 + 2 + 1 + 1 + 1 = 6
+4. A -&gt; E -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N
+   Total cost: 1 + 2 + 1 + 1 + 3 + 3 + 2 = 13
+5. A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N
+   Total cost: 1 + 2 + 1 + 1 + 1 = 6
+6. A -&gt; E -&gt; F -&gt; H -&gt; N
+   Total cost: 1 + 2 + 1 + 1 = 5
+Therefore, the least cost path from node A to node N is: A -&gt; E -&gt; F -&gt; H -&gt; N with a total cost of 5.</t>
   </si>
 </sst>
 </file>
@@ -829,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -840,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -851,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -862,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -873,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -884,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -895,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -906,7 +880,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
